--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_6_5.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_6_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,276 +518,276 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_1</t>
+          <t>model_6_5_7</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9818746194106767</v>
+        <v>0.9898011376897483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8153565008445819</v>
+        <v>0.8360119015998053</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9190950431055548</v>
+        <v>0.9816034649978216</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9740451900502529</v>
+        <v>0.9910185891484999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9617130429947554</v>
+        <v>0.9889133044409064</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1212045034605084</v>
+        <v>0.06819983923009576</v>
       </c>
       <c r="H2" t="n">
-        <v>1.234711929057418</v>
+        <v>1.096589169097864</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1767110932798813</v>
+        <v>0.2081468342081808</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1759547254987069</v>
+        <v>0.06873181139136476</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1763328758538064</v>
+        <v>0.1384394999240238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.1453581816061383</v>
+        <v>0.4713034082673035</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3481443715766612</v>
+        <v>0.2611509893339402</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003595116811105</v>
+        <v>1.011655842640288</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3629655982328802</v>
+        <v>0.2722687276069596</v>
       </c>
       <c r="P2" t="n">
-        <v>294.2205520975446</v>
+        <v>95.37062614293094</v>
       </c>
       <c r="Q2" t="n">
-        <v>470.9575467034337</v>
+        <v>150.220038262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_2</t>
+          <t>model_6_5_8</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9803941468729691</v>
+        <v>0.9900323426167824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8148322382067265</v>
+        <v>0.8360011397359813</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8997486077790346</v>
+        <v>0.9817711102610686</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9598472642093094</v>
+        <v>0.9901254159022372</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9466760194024277</v>
+        <v>0.9887155782343782</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1311044301371085</v>
+        <v>0.06665377081841807</v>
       </c>
       <c r="H3" t="n">
-        <v>1.238217675730765</v>
+        <v>1.096661133730808</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2189672153871859</v>
+        <v>0.2062500188127418</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2722063316106808</v>
+        <v>0.07556697527785892</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2455867895026093</v>
+        <v>0.1409085058607108</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1499195606755183</v>
+        <v>0.4793774322787437</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3620834574198447</v>
+        <v>0.2581739158366276</v>
       </c>
       <c r="N3" t="n">
-        <v>1.003888764256601</v>
+        <v>1.011391608437963</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3774980998182934</v>
+        <v>0.2691649139274747</v>
       </c>
       <c r="P3" t="n">
-        <v>294.0635221934767</v>
+        <v>95.41648731507486</v>
       </c>
       <c r="Q3" t="n">
-        <v>470.8005167993658</v>
+        <v>150.2658994341439</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_0</t>
+          <t>model_6_5_6</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9822251571927488</v>
+        <v>0.9894940133316871</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8147110082527159</v>
+        <v>0.8359509987725043</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9332358892977002</v>
+        <v>0.9812956248027699</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9855922277789241</v>
+        <v>0.99191121622642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9735646625790922</v>
+        <v>0.9890473766468201</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1188604556977143</v>
+        <v>0.07025358122662884</v>
       </c>
       <c r="H4" t="n">
-        <v>1.239028340991446</v>
+        <v>1.096996426584457</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1458249215737787</v>
+        <v>0.2116298793595884</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09767421187501399</v>
+        <v>0.0619008271532729</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1217495313340227</v>
+        <v>0.136765341105333</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1412203397371617</v>
+        <v>0.4627294812320606</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3447614475223619</v>
+        <v>0.2650539213568229</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003525588655984</v>
+        <v>1.012006841906643</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3594386560979711</v>
+        <v>0.2763378155262394</v>
       </c>
       <c r="P4" t="n">
-        <v>294.2596102302959</v>
+        <v>95.31128798750527</v>
       </c>
       <c r="Q4" t="n">
-        <v>470.996604836185</v>
+        <v>150.1607001065743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_3</t>
+          <t>model_6_5_9</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9780929845023841</v>
+        <v>0.9901974388533065</v>
       </c>
       <c r="C5" t="n">
-        <v>0.813451340209784</v>
+        <v>0.8359300281358625</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8766971967455373</v>
+        <v>0.9818183852263921</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9439222775629162</v>
+        <v>0.9892359156605453</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9294893741226531</v>
+        <v>0.9884644339294715</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1464923135050886</v>
+        <v>0.06554977152458358</v>
       </c>
       <c r="H5" t="n">
-        <v>1.24745174699477</v>
+        <v>1.097136657328242</v>
       </c>
       <c r="I5" t="n">
-        <v>0.269315676121029</v>
+        <v>0.205715128173378</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3801661532915945</v>
+        <v>0.08237403085692073</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3247409147063117</v>
+        <v>0.1440445432665133</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1546334915763365</v>
+        <v>0.486981741066231</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3827431429889875</v>
+        <v>0.2560268960960617</v>
       </c>
       <c r="N5" t="n">
-        <v>1.004345193156552</v>
+        <v>1.011202927024793</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3990373109735596</v>
+        <v>0.2669264911116094</v>
       </c>
       <c r="P5" t="n">
-        <v>293.8415646388871</v>
+        <v>95.44989110858421</v>
       </c>
       <c r="Q5" t="n">
-        <v>470.5785592447762</v>
+        <v>150.2993032276532</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_4</t>
+          <t>model_6_5_10</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9752209272528252</v>
+        <v>0.9903051848335647</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8114691635168828</v>
+        <v>0.835808401886349</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8512170315877707</v>
+        <v>0.9817628865712227</v>
       </c>
       <c r="E6" t="n">
-        <v>0.926994135499005</v>
+        <v>0.9883536876438023</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9109884918393544</v>
+        <v>0.9881689220447594</v>
       </c>
       <c r="G6" t="n">
-        <v>0.165697773557497</v>
+        <v>0.06482927365847237</v>
       </c>
       <c r="H6" t="n">
-        <v>1.260706571667284</v>
+        <v>1.097949972618776</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3249689761759975</v>
+        <v>0.2063430654112843</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4949266387594385</v>
+        <v>0.08912543446750483</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4099478372204182</v>
+        <v>0.1477345983711275</v>
       </c>
       <c r="L6" t="n">
-        <v>0.1585694693629567</v>
+        <v>0.4941536731348888</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4070599139653732</v>
+        <v>0.2546159336303845</v>
       </c>
       <c r="N6" t="n">
-        <v>1.004914857404398</v>
+        <v>1.01107978876164</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4243892972330653</v>
+        <v>0.2654554610526733</v>
       </c>
       <c r="P6" t="n">
-        <v>293.5951795824543</v>
+        <v>95.4719960472905</v>
       </c>
       <c r="Q6" t="n">
-        <v>470.3321741883433</v>
+        <v>150.3214081663595</v>
       </c>
     </row>
     <row r="7">
@@ -797,1042 +797,822 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9719772970219511</v>
+        <v>0.9890998659796392</v>
       </c>
       <c r="C7" t="n">
-        <v>0.809089233871472</v>
+        <v>0.8358052956433952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8243608129850422</v>
+        <v>0.9808253150346607</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9096246215660759</v>
+        <v>0.9927982633380642</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8918364791508024</v>
+        <v>0.9891061109774832</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1873879438468957</v>
+        <v>0.07288924638465516</v>
       </c>
       <c r="H7" t="n">
-        <v>1.276621172164714</v>
+        <v>1.097970744079711</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3836278264222609</v>
+        <v>0.2169511797739055</v>
       </c>
       <c r="J7" t="n">
-        <v>0.6126793043359513</v>
+        <v>0.05511254457931621</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4981535798522587</v>
+        <v>0.1360319258760573</v>
       </c>
       <c r="L7" t="n">
-        <v>0.1618519149513696</v>
+        <v>0.453629660171126</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4328832912540003</v>
+        <v>0.2699800851630638</v>
       </c>
       <c r="N7" t="n">
-        <v>1.005558222078291</v>
+        <v>1.01245729602327</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4513120291546295</v>
+        <v>0.2814736963242769</v>
       </c>
       <c r="P7" t="n">
-        <v>293.3491484900838</v>
+        <v>95.23762832543754</v>
       </c>
       <c r="Q7" t="n">
-        <v>470.0861430959729</v>
+        <v>150.0870404445066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_6</t>
+          <t>model_6_5_11</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9685185451115591</v>
+        <v>0.9903634220762381</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8064700874295707</v>
+        <v>0.8356447344042789</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7969682149517814</v>
+        <v>0.9816201211424589</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8922417205443061</v>
+        <v>0.9874819516246972</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8725474249010847</v>
+        <v>0.9878371266346507</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2105166337977749</v>
+        <v>0.06443984094855737</v>
       </c>
       <c r="H8" t="n">
-        <v>1.294135416481769</v>
+        <v>1.099044417824999</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4434582265861126</v>
+        <v>0.2079583789487553</v>
       </c>
       <c r="J8" t="n">
-        <v>0.730522724633718</v>
+        <v>0.09579654623812178</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5869904756099154</v>
+        <v>0.1518777256363893</v>
       </c>
       <c r="L8" t="n">
-        <v>0.164578760459695</v>
+        <v>0.5009116938505825</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4588209169139686</v>
+        <v>0.2538500363375144</v>
       </c>
       <c r="N8" t="n">
-        <v>1.006244255515063</v>
+        <v>1.011013231912871</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4783538732372298</v>
+        <v>0.2646569579264197</v>
       </c>
       <c r="P8" t="n">
-        <v>293.1163812171293</v>
+        <v>95.48404637777251</v>
       </c>
       <c r="Q8" t="n">
-        <v>469.8533758230184</v>
+        <v>150.3334584968416</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_7</t>
+          <t>model_6_5_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9649657717916056</v>
+        <v>0.9886063343104262</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8037329306550547</v>
+        <v>0.8355595982652382</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7696900639874069</v>
+        <v>0.9801673964278186</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8751667808305931</v>
+        <v>0.9936740642082441</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8535121524266356</v>
+        <v>0.989076428982435</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2342740453473212</v>
+        <v>0.07618949492918632</v>
       </c>
       <c r="H9" t="n">
-        <v>1.312438796436406</v>
+        <v>1.099613723578779</v>
       </c>
       <c r="I9" t="n">
-        <v>0.5030386536031772</v>
+        <v>0.2243951726325959</v>
       </c>
       <c r="J9" t="n">
-        <v>0.8462783913502305</v>
+        <v>0.04841032582762139</v>
       </c>
       <c r="K9" t="n">
-        <v>0.674658564186937</v>
+        <v>0.1364025647674498</v>
       </c>
       <c r="L9" t="n">
-        <v>0.166847051911191</v>
+        <v>0.4439630506746923</v>
       </c>
       <c r="M9" t="n">
-        <v>0.484018641528734</v>
+        <v>0.2760244462528388</v>
       </c>
       <c r="N9" t="n">
-        <v>1.006948937826458</v>
+        <v>1.013021332216656</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5046243171553265</v>
+        <v>0.2877753783791961</v>
       </c>
       <c r="P9" t="n">
-        <v>292.9025274298079</v>
+        <v>95.1490633752301</v>
       </c>
       <c r="Q9" t="n">
-        <v>469.639522035697</v>
+        <v>149.9984754942991</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_8</t>
+          <t>model_6_5_12</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9614108076155781</v>
+        <v>0.9903790509772163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8009679376631385</v>
+        <v>0.8354463982023274</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7430133748494103</v>
+        <v>0.9814037276113243</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8586343290665223</v>
+        <v>0.9866232953509659</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8350187779279614</v>
+        <v>0.987475986626265</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2580461071615224</v>
+        <v>0.064335330415751</v>
       </c>
       <c r="H10" t="n">
-        <v>1.330928317304972</v>
+        <v>1.100370692920702</v>
       </c>
       <c r="I10" t="n">
-        <v>0.561305378951208</v>
+        <v>0.2104067546044668</v>
       </c>
       <c r="J10" t="n">
-        <v>0.9583563845083359</v>
+        <v>0.1023675629783541</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7598309091488509</v>
+        <v>0.1563872787216157</v>
       </c>
       <c r="L10" t="n">
-        <v>0.1687329540845982</v>
+        <v>0.5072931342174137</v>
       </c>
       <c r="M10" t="n">
-        <v>0.5079823886332304</v>
+        <v>0.2536441018745577</v>
       </c>
       <c r="N10" t="n">
-        <v>1.007654054687819</v>
+        <v>1.010995370311753</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5296082505858565</v>
+        <v>0.2644422564070318</v>
       </c>
       <c r="P10" t="n">
-        <v>292.7092340001977</v>
+        <v>95.48729267299059</v>
       </c>
       <c r="Q10" t="n">
-        <v>469.4462286060868</v>
+        <v>150.3367047920596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_9</t>
+          <t>model_6_5_13</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9579218517434661</v>
+        <v>0.9903581196178454</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7982409376476728</v>
+        <v>0.8352197905709293</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7172920057660184</v>
+        <v>0.98112565123156</v>
       </c>
       <c r="E11" t="n">
-        <v>0.842808834675946</v>
+        <v>0.9857797620833878</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8172722568482733</v>
+        <v>0.9870915435450479</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2813767711434991</v>
+        <v>0.06447529851224479</v>
       </c>
       <c r="H11" t="n">
-        <v>1.349163778965071</v>
+        <v>1.101886019195294</v>
       </c>
       <c r="I11" t="n">
-        <v>0.6174855121080876</v>
+        <v>0.2135530382991498</v>
       </c>
       <c r="J11" t="n">
-        <v>1.065641721090133</v>
+        <v>0.1088228482790854</v>
       </c>
       <c r="K11" t="n">
-        <v>0.841563575914531</v>
+        <v>0.1611878171353623</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1702999949234766</v>
+        <v>0.5133100489891901</v>
       </c>
       <c r="M11" t="n">
-        <v>0.530449593404971</v>
+        <v>0.2539198663205476</v>
       </c>
       <c r="N11" t="n">
-        <v>1.008346078993031</v>
+        <v>1.01101929186532</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5530319307782554</v>
+        <v>0.2647297607163987</v>
       </c>
       <c r="P11" t="n">
-        <v>292.5361213703471</v>
+        <v>95.48294619466819</v>
       </c>
       <c r="Q11" t="n">
-        <v>469.2731159762362</v>
+        <v>150.3323583137372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_10</t>
+          <t>model_6_5_3</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9545477434714826</v>
+        <v>0.9879995963772163</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7955980449326622</v>
+        <v>0.8351963592601455</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6927659533604424</v>
+        <v>0.979293846158782</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8277992419040892</v>
+        <v>0.9945320390884083</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8004096445788726</v>
+        <v>0.9889435674827816</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3039394486945926</v>
+        <v>0.08024675428233179</v>
       </c>
       <c r="H12" t="n">
-        <v>1.366836814719749</v>
+        <v>1.102042704478396</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6710548569392514</v>
+        <v>0.2342789210123924</v>
       </c>
       <c r="J12" t="n">
-        <v>1.167395838386036</v>
+        <v>0.04184452357038194</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9192253476626436</v>
+        <v>0.1380616055044426</v>
       </c>
       <c r="L12" t="n">
-        <v>0.1716030467806934</v>
+        <v>0.4336917639934588</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5513070366815507</v>
+        <v>0.2832785806981032</v>
       </c>
       <c r="N12" t="n">
-        <v>1.009015323608962</v>
+        <v>1.013714746997467</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5747773185959788</v>
+        <v>0.2953383363459238</v>
       </c>
       <c r="P12" t="n">
-        <v>292.3818535586819</v>
+        <v>95.04529792573983</v>
       </c>
       <c r="Q12" t="n">
-        <v>469.118848164571</v>
+        <v>149.8947100448088</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_11</t>
+          <t>model_6_5_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9513223314087411</v>
+        <v>0.9903060993020478</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7930706540386224</v>
+        <v>0.8349703827142001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6695899031929378</v>
+        <v>0.9807966569045873</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8136710906227732</v>
+        <v>0.9849533585892064</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7845158840395181</v>
+        <v>0.986689253877264</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3255077940098027</v>
+        <v>0.06482315860351424</v>
       </c>
       <c r="H13" t="n">
-        <v>1.383737489265758</v>
+        <v>1.10355381068166</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7216755521378457</v>
+        <v>0.2172754310010211</v>
       </c>
       <c r="J13" t="n">
-        <v>1.263174423755041</v>
+        <v>0.1151470450043425</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9924250146837708</v>
+        <v>0.1662112057668759</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1726837627077407</v>
+        <v>0.5190009252003434</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5705329035295008</v>
+        <v>0.254603924957009</v>
       </c>
       <c r="N13" t="n">
-        <v>1.009655074761903</v>
+        <v>1.011078743654803</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5948216703986771</v>
+        <v>0.2654429411452108</v>
       </c>
       <c r="P13" t="n">
-        <v>292.2447377457792</v>
+        <v>95.47218470722864</v>
       </c>
       <c r="Q13" t="n">
-        <v>468.9817323516683</v>
+        <v>150.3215968262977</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_12</t>
+          <t>model_6_5_15</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.948267656655495</v>
+        <v>0.9902277799980103</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7906785674086403</v>
+        <v>0.8347029570103011</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6478502334746725</v>
+        <v>0.9804259794353782</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8004568186212223</v>
+        <v>0.9841455041110374</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7696353371231061</v>
+        <v>0.986273771502674</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3459344181502437</v>
+        <v>0.06534688015024069</v>
       </c>
       <c r="H14" t="n">
-        <v>1.399733383574994</v>
+        <v>1.105342087595014</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7691589320309997</v>
+        <v>0.221469445891272</v>
       </c>
       <c r="J14" t="n">
-        <v>1.352757572589494</v>
+        <v>0.1213292921527293</v>
       </c>
       <c r="K14" t="n">
-        <v>1.06095826562061</v>
+        <v>0.1713993316479284</v>
       </c>
       <c r="L14" t="n">
-        <v>0.1735931619877736</v>
+        <v>0.5243746524620494</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5881618979075776</v>
+        <v>0.2556303584284165</v>
       </c>
       <c r="N14" t="n">
-        <v>1.010260960663373</v>
+        <v>1.011168251430845</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6132011675644778</v>
+        <v>0.2665130720145064</v>
       </c>
       <c r="P14" t="n">
-        <v>292.1230121296166</v>
+        <v>95.45609116135047</v>
       </c>
       <c r="Q14" t="n">
-        <v>468.8600067355057</v>
+        <v>150.3055032804195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_13</t>
+          <t>model_6_5_2</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9453961082760584</v>
+        <v>0.9872641805123895</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7884328444376429</v>
+        <v>0.834695265483488</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6275777774656672</v>
+        <v>0.9781732690331655</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7881614962427863</v>
+        <v>0.9953643729431532</v>
       </c>
       <c r="F15" t="n">
-        <v>0.7557790467570314</v>
+        <v>0.988690934271362</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3651364753858004</v>
+        <v>0.08516448355670776</v>
       </c>
       <c r="H15" t="n">
-        <v>1.414750543422657</v>
+        <v>1.105393520870229</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8134376511890044</v>
+        <v>0.2469576445413386</v>
       </c>
       <c r="J15" t="n">
-        <v>1.436110911650907</v>
+        <v>0.03547494372765371</v>
       </c>
       <c r="K15" t="n">
-        <v>1.124774241609003</v>
+        <v>0.141216234876803</v>
       </c>
       <c r="L15" t="n">
-        <v>0.1743489167848085</v>
+        <v>0.4227956697768113</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6042652359566951</v>
+        <v>0.2918295453800176</v>
       </c>
       <c r="N15" t="n">
-        <v>1.010830523978302</v>
+        <v>1.014555222271555</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6299900580528515</v>
+        <v>0.3042533332972844</v>
       </c>
       <c r="P15" t="n">
-        <v>292.0149681802364</v>
+        <v>94.92634158344013</v>
       </c>
       <c r="Q15" t="n">
-        <v>468.7519627861255</v>
+        <v>149.7757537025091</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_14</t>
+          <t>model_6_5_16</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9427135081800968</v>
+        <v>0.9901273394414011</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7863383205702406</v>
+        <v>0.8344216642791574</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6087707934158375</v>
+        <v>0.9800216572918113</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7767718625421363</v>
+        <v>0.9833574009203648</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7429368141138627</v>
+        <v>0.9858490914916435</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3830750345797332</v>
+        <v>0.06601852661477285</v>
       </c>
       <c r="H16" t="n">
-        <v>1.428756634168373</v>
+        <v>1.107223093383406</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8545155139098101</v>
+        <v>0.226044132057648</v>
       </c>
       <c r="J16" t="n">
-        <v>1.513324340499314</v>
+        <v>0.1273603891322417</v>
       </c>
       <c r="K16" t="n">
-        <v>1.183919913960122</v>
+        <v>0.1767023083591969</v>
       </c>
       <c r="L16" t="n">
-        <v>0.1749832547311002</v>
+        <v>0.529453771662092</v>
       </c>
       <c r="M16" t="n">
-        <v>0.618930557154624</v>
+        <v>0.2569407064183736</v>
       </c>
       <c r="N16" t="n">
-        <v>1.011362609947749</v>
+        <v>1.011283040638399</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6452797123355761</v>
+        <v>0.2678792042311902</v>
       </c>
       <c r="P16" t="n">
-        <v>291.9190487924981</v>
+        <v>95.43563974012382</v>
       </c>
       <c r="Q16" t="n">
-        <v>468.6560433983872</v>
+        <v>150.2850518591929</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_15</t>
+          <t>model_6_5_17</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.940220196651704</v>
+        <v>0.99000852902907</v>
       </c>
       <c r="C17" t="n">
-        <v>0.784395266065398</v>
+        <v>0.8341300299824493</v>
       </c>
       <c r="D17" t="n">
-        <v>0.591393998694751</v>
+        <v>0.9795907146599615</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7662611264368649</v>
+        <v>0.9825900495555033</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7310805779774654</v>
+        <v>0.9854187288810121</v>
       </c>
       <c r="G17" t="n">
-        <v>0.3997478202507396</v>
+        <v>0.06681301238910237</v>
       </c>
       <c r="H17" t="n">
-        <v>1.441749848589198</v>
+        <v>1.109173253268345</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8924695838547392</v>
+        <v>0.2309200146373984</v>
       </c>
       <c r="J17" t="n">
-        <v>1.584579483178961</v>
+        <v>0.1332326791491005</v>
       </c>
       <c r="K17" t="n">
-        <v>1.23852452028719</v>
+        <v>0.1820762436570716</v>
       </c>
       <c r="L17" t="n">
-        <v>0.175512119618943</v>
+        <v>0.5342586038368704</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6322561350044297</v>
+        <v>0.2584821316631042</v>
       </c>
       <c r="N17" t="n">
-        <v>1.011857151077348</v>
+        <v>1.011418823966777</v>
       </c>
       <c r="O17" t="n">
-        <v>0.659172587622197</v>
+        <v>0.2694862511397792</v>
       </c>
       <c r="P17" t="n">
-        <v>291.8338427601282</v>
+        <v>95.41171484233163</v>
       </c>
       <c r="Q17" t="n">
-        <v>468.5708373660173</v>
+        <v>150.2611269614007</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_16</t>
+          <t>model_6_5_1</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9379127740121695</v>
+        <v>0.9863829445529737</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7826005614014633</v>
+        <v>0.8340329717939461</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5753961172267803</v>
+        <v>0.9767709284443586</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7565920386144824</v>
+        <v>0.9961623069568122</v>
       </c>
       <c r="F18" t="n">
-        <v>0.7201707558631394</v>
+        <v>0.988300111834681</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4151775660660111</v>
+        <v>0.09105731247504012</v>
       </c>
       <c r="H18" t="n">
-        <v>1.453751046940785</v>
+        <v>1.109822281821778</v>
       </c>
       <c r="I18" t="n">
-        <v>0.9274118572689056</v>
+        <v>0.2628243691178535</v>
       </c>
       <c r="J18" t="n">
-        <v>1.650128862924151</v>
+        <v>0.02936861466239279</v>
       </c>
       <c r="K18" t="n">
-        <v>1.288770360096528</v>
+        <v>0.1460964322633735</v>
       </c>
       <c r="L18" t="n">
-        <v>0.1759595295036376</v>
+        <v>0.4112432065265538</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6443427395928436</v>
+        <v>0.3017570421299893</v>
       </c>
       <c r="N18" t="n">
-        <v>1.012314821683537</v>
+        <v>1.015562349082316</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6717737439906605</v>
+        <v>0.3146034641366537</v>
       </c>
       <c r="P18" t="n">
-        <v>291.7580979604463</v>
+        <v>94.79253232658544</v>
       </c>
       <c r="Q18" t="n">
-        <v>468.4950925663354</v>
+        <v>149.6419444456545</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_17</t>
+          <t>model_6_5_18</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.935785227889555</v>
+        <v>0.9898746217945461</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7809488747371653</v>
+        <v>0.8338311379450815</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5607108536373365</v>
+        <v>0.9791394582961902</v>
       </c>
       <c r="E19" t="n">
-        <v>0.7477224476304499</v>
+        <v>0.9818441185910083</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7101606103106272</v>
+        <v>0.9849857204408584</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4294044767843835</v>
+        <v>0.06770845068295017</v>
       </c>
       <c r="H19" t="n">
-        <v>1.464795883270263</v>
+        <v>1.111171945698496</v>
       </c>
       <c r="I19" t="n">
-        <v>0.9594871352692331</v>
+        <v>0.2360257360965837</v>
       </c>
       <c r="J19" t="n">
-        <v>1.71025823585745</v>
+        <v>0.1389410458200325</v>
       </c>
       <c r="K19" t="n">
-        <v>1.334872685563342</v>
+        <v>0.1874832174120783</v>
       </c>
       <c r="L19" t="n">
-        <v>0.1763323966810474</v>
+        <v>0.5387982270427844</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6552896129074407</v>
+        <v>0.2602084754248988</v>
       </c>
       <c r="N19" t="n">
-        <v>1.012736814302898</v>
+        <v>1.011571860806233</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6831866483654118</v>
+        <v>0.2712860889295375</v>
       </c>
       <c r="P19" t="n">
-        <v>291.6907119358357</v>
+        <v>95.38508856280835</v>
       </c>
       <c r="Q19" t="n">
-        <v>468.4277065417248</v>
+        <v>150.2345006818774</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_18</t>
+          <t>model_6_5_19</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9338294467830471</v>
+        <v>0.9897284644198212</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7794334403444342</v>
+        <v>0.8335276065210036</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5472641502188693</v>
+        <v>0.9786731881393078</v>
       </c>
       <c r="E20" t="n">
-        <v>0.7396046621082341</v>
+        <v>0.9811201919978526</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7009974772840518</v>
+        <v>0.9845526449086354</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4424827940491454</v>
+        <v>0.06868580572072777</v>
       </c>
       <c r="H20" t="n">
-        <v>1.47492960003239</v>
+        <v>1.113201661728938</v>
       </c>
       <c r="I20" t="n">
-        <v>0.9888571733150826</v>
+        <v>0.2413013304967975</v>
       </c>
       <c r="J20" t="n">
-        <v>1.765290914809229</v>
+        <v>0.1444810202054219</v>
       </c>
       <c r="K20" t="n">
-        <v>1.377074044062156</v>
+        <v>0.1928910289453455</v>
       </c>
       <c r="L20" t="n">
-        <v>0.1766441698329596</v>
+        <v>0.543096466697442</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6651938018721653</v>
+        <v>0.2620797697662446</v>
       </c>
       <c r="N20" t="n">
-        <v>1.013124737828156</v>
+        <v>1.011738897805919</v>
       </c>
       <c r="O20" t="n">
-        <v>0.693512479158862</v>
+        <v>0.2732370481451077</v>
       </c>
       <c r="P20" t="n">
-        <v>291.6307073975898</v>
+        <v>95.35642542721747</v>
       </c>
       <c r="Q20" t="n">
-        <v>468.3677020034789</v>
+        <v>150.2058375462865</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_5_19</t>
+          <t>model_6_5_0</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9320364331861442</v>
+        <v>0.9853368657117085</v>
       </c>
       <c r="C21" t="n">
-        <v>0.77804654485277</v>
+        <v>0.8331827095740638</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5349794632995786</v>
+        <v>0.9750482656601831</v>
       </c>
       <c r="E21" t="n">
-        <v>0.7321904838849764</v>
+        <v>0.9969158266137707</v>
       </c>
       <c r="F21" t="n">
-        <v>0.6926277331487148</v>
+        <v>0.9877505457922241</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4544726842277039</v>
+        <v>0.09805244650333025</v>
       </c>
       <c r="H21" t="n">
-        <v>1.484203776571214</v>
+        <v>1.115507989201229</v>
       </c>
       <c r="I21" t="n">
-        <v>1.015689156662421</v>
+        <v>0.2823153659219756</v>
       </c>
       <c r="J21" t="n">
-        <v>1.815553648252381</v>
+        <v>0.02360217420019046</v>
       </c>
       <c r="K21" t="n">
-        <v>1.415621402457401</v>
+        <v>0.1529588600884584</v>
       </c>
       <c r="L21" t="n">
-        <v>0.1769179797938147</v>
+        <v>0.3991015842074523</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6741458923910342</v>
+        <v>0.3131332727503263</v>
       </c>
       <c r="N21" t="n">
-        <v>1.013480376888699</v>
+        <v>1.016757867758047</v>
       </c>
       <c r="O21" t="n">
-        <v>0.7028456787045013</v>
+        <v>0.3264640044465423</v>
       </c>
       <c r="P21" t="n">
-        <v>291.5772349357597</v>
+        <v>94.64450555012354</v>
       </c>
       <c r="Q21" t="n">
-        <v>468.3142295416488</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_6_5_20</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9303962373475236</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.7767800676023494</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5237759750389033</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.7254304465504038</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.6849958102214506</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.4654406813529667</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.492672715776369</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.040159606126664</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.861381782454431</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.450770681045269</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.1771490321680529</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.6822321315747057</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.013805704988921</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.7112761658310446</v>
-      </c>
-      <c r="P22" t="n">
-        <v>291.5295412406926</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>468.2665358465817</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_6_5_21</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.9288989768504639</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.7756256468915527</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5135761173767017</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.719277188978193</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.6780484493810135</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.4754528691910559</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.500392332385085</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.06243794441363</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.903096391389633</v>
-      </c>
-      <c r="K23" t="n">
-        <v>1.482767167901631</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.1773465613392962</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.6895309051747107</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.014102682277594</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.7188856633337459</v>
-      </c>
-      <c r="P23" t="n">
-        <v>291.4869750406595</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>468.2239696465486</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_6_5_22</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9275341341561448</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.7745749858823585</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5042998043018707</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.7136823970978126</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.6717311132198236</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.4845795785724906</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.507418107391416</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.082699093890521</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.941025009300562</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1.511862038326702</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1775092808276894</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.6961175034234455</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.01437339487812</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.7257526667060673</v>
-      </c>
-      <c r="P24" t="n">
-        <v>291.4489472245581</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>468.1859418304472</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_6_5_23</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.9262920918309135</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.7736201060178475</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.495876557257077</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.708601939678295</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.6659945979832093</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.4928851213203913</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.513803393442219</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.101096992503755</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.975466813821184</v>
-      </c>
-      <c r="K25" t="n">
-        <v>1.538281903162469</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.1776497157509243</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.7020577763406594</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.014619750380645</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.7319458293394272</v>
-      </c>
-      <c r="P25" t="n">
-        <v>291.4149583034537</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>468.1519529093428</v>
+        <v>149.4939176691926</v>
       </c>
     </row>
   </sheetData>
